--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\infosys\batchE\day6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46A45602-3A92-4CFD-85BB-DAFD806BF524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819C2FA4-FCD9-4C3A-9E56-6C35F4DB2DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DDC774BF-B75A-416A-916D-F0C136F98BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DDC774BF-B75A-416A-916D-F0C136F98BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>mobileNumber</t>
   </si>
@@ -109,6 +110,51 @@
   </si>
   <si>
     <t>manager     45678</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>name Is of type Name</t>
+  </si>
+  <si>
+    <t>person is of type Person</t>
+  </si>
+  <si>
+    <t>Rajiv</t>
+  </si>
+  <si>
+    <t>firstname   1111</t>
+  </si>
+  <si>
+    <t>setFirstName("Rajiv");</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>middlename 2222</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>lastname   3333</t>
+  </si>
+  <si>
+    <t>setAge(23)</t>
+  </si>
+  <si>
+    <t>age    23</t>
+  </si>
+  <si>
+    <t>setName(2345)</t>
+  </si>
+  <si>
+    <t>name   2345</t>
   </si>
 </sst>
 </file>
@@ -685,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95BA98A-293A-4326-8EA9-A2A6821BEE99}">
   <dimension ref="C9:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -777,4 +823,111 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CFC4CF-EF46-489F-97EC-73A2024508E5}">
+  <dimension ref="C5:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>2345</v>
+      </c>
+      <c r="M5">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="8">
+        <v>2345</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3456</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>